--- a/Genetic Algorithm/comparative_result.xlsx
+++ b/Genetic Algorithm/comparative_result.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t xml:space="preserve">S-Box Generation Method</t>
   </si>
   <si>
+    <t xml:space="preserve">Algorithm Generation</t>
+  </si>
+  <si>
     <t xml:space="preserve">NL</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve">Chaotic map (Prathyusha)</t>
   </si>
   <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
     <t xml:space="preserve">3(no)</t>
   </si>
   <si>
@@ -86,6 +92,39 @@
   </si>
   <si>
     <t xml:space="preserve">Tent map (Prathyusha)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ant colony algorithm(ACO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemanth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Novel Ant Colony Optimization Based Scheme for Substitution Box Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firefly Algorithm(FA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuckoo Search Algorithm(CSA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Substitution Box Design Based on Chaotic Maps and Cuckoo Search Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSA + Chaotic Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mustafa, Prathysha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neural Network (JD)</t>
   </si>
 </sst>
 </file>
@@ -95,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -116,11 +155,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -205,7 +239,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -286,15 +320,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M14" activeCellId="0" sqref="M14"/>
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.79"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -325,163 +360,183 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="D2" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <v>0.527</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="3" t="n">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="D3" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="3" t="n">
         <v>0.468</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="n">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="3" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>108</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="n">
+      <c r="F4" s="2" t="n">
         <v>0.4843</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>106</v>
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2" t="n">
         <v>0.507</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="D6" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>0.5</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -489,12 +544,15 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -502,43 +560,117 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="2" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>0.4912</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -546,9 +678,12 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -557,6 +692,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2"/>
@@ -568,6 +704,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2"/>
@@ -579,6 +716,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
